--- a/5. FF预研/资料/功能块参数信息.xlsx
+++ b/5. FF预研/资料/功能块参数信息.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangbin184035\Desktop\99se\0223\0225\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Code\99se\Hollysys\5. FF预研\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,16 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>usCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">UINT8 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>功能块修改参数个数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -46,35 +42,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>参数数据长度（字节数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UINT16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能块参数信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子参数索引（从1开始）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   UINT16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   UINT8 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>usLength</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数数据长度（字节数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UINT16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能块参数信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数索引（从1开始）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子参数索引（从1开始）</t>
+    <t xml:space="preserve">   UINT8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data[usLength]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数索引（从1开始）+块ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -130,13 +142,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -144,6 +193,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,82 +552,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D9:G13"/>
+  <dimension ref="D9:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D10" s="2"/>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D11" s="2"/>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D12" s="2"/>
       <c r="E12" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F13" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D14" s="2"/>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D9:D13"/>
+  <mergeCells count="2">
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
